--- a/data/trans_dic/P3A$yo-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P3A$yo-Habitat-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.9336551045053781</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7846158329162725</v>
+        <v>0.7846158329162728</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5866232151765393</v>
+        <v>0.5882526064972449</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9122414869905267</v>
+        <v>0.9132289624676988</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7577711324011316</v>
+        <v>0.7596599973369464</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6668754539856929</v>
+        <v>0.6661268396238544</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9484146570306088</v>
+        <v>0.9477039179164974</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8078202501716208</v>
+        <v>0.8064611187408245</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.6501003332913027</v>
+        <v>0.6501003332913028</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.9193463426156261</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6172478663385209</v>
+        <v>0.6158655343397703</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.900080115471948</v>
+        <v>0.8986033294717541</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7650687102992162</v>
+        <v>0.7645695412771311</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6855051158378223</v>
+        <v>0.6819392283674149</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9340664444261633</v>
+        <v>0.9348732302704071</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8054203986261597</v>
+        <v>0.8043057375911785</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.9069934229336184</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7921445498233224</v>
+        <v>0.7921445498233225</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.634969366720856</v>
+        <v>0.6398986500557717</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8805808484286108</v>
+        <v>0.8799114532254952</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7671237334551709</v>
+        <v>0.7679370412759307</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7153726058936347</v>
+        <v>0.7157394783571228</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9264984840878636</v>
+        <v>0.9275374401539963</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8134970353793558</v>
+        <v>0.8130185250023566</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.6626412911052502</v>
+        <v>0.6626412911052504</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.8755472255514041</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7755778677584586</v>
+        <v>0.7755778677584585</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.629116230073871</v>
+        <v>0.6281101443598409</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8540464735185573</v>
+        <v>0.8535165549410333</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.757643736359255</v>
+        <v>0.7569972999110552</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6943054951337261</v>
+        <v>0.6937126386152104</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8954546045100908</v>
+        <v>0.8946743104221192</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7940969484599986</v>
+        <v>0.7932651662353339</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.9063669999452783</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7841178267236728</v>
+        <v>0.7841178267236727</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6351154084348603</v>
+        <v>0.634264217676654</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8961948497794108</v>
+        <v>0.8957152698446258</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7726354913281056</v>
+        <v>0.7725483567892708</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6724455680291604</v>
+        <v>0.6732410353417373</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9157172619145945</v>
+        <v>0.9156070272378266</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7938676764520349</v>
+        <v>0.7934134885047113</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>404903</v>
+        <v>406027</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>669749</v>
+        <v>670474</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1079374</v>
+        <v>1082064</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>460295</v>
+        <v>459778</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>696307</v>
+        <v>695785</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1150664</v>
+        <v>1148728</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>647442</v>
+        <v>645992</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>964412</v>
+        <v>962830</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1622245</v>
+        <v>1621186</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>719038</v>
+        <v>715298</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1000828</v>
+        <v>1001692</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1707806</v>
+        <v>1705443</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>509927</v>
+        <v>513885</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>715260</v>
+        <v>714716</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1239160</v>
+        <v>1240473</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>574496</v>
+        <v>574791</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>752557</v>
+        <v>753401</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1314068</v>
+        <v>1313295</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>622480</v>
+        <v>621485</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>954650</v>
+        <v>954057</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1596544</v>
+        <v>1595182</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>686982</v>
+        <v>686395</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1000936</v>
+        <v>1000063</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1673360</v>
+        <v>1671607</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2243017</v>
+        <v>2240011</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3347923</v>
+        <v>3346132</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5615034</v>
+        <v>5614401</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2374855</v>
+        <v>2377664</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3420853</v>
+        <v>3420441</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>5769336</v>
+        <v>5766036</v>
       </c>
     </row>
     <row r="24">
